--- a/data/Em3/PrBlank.xlsx
+++ b/data/Em3/PrBlank.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>U-233</t>
   </si>
@@ -53,12 +56,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,23 +379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,56 +421,65 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>8166</v>
+      </c>
+      <c r="B2" s="1">
         <v>8.57191849971618E-06</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>3.140107013746558</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>1.347383068656797E-06</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>1.451455041867075E-05</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.0004193063325886443</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.5013616086871453</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>1.612696512982205E-05</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>3.140107031362085</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>8166</v>
+      </c>
+      <c r="B3" s="1">
         <v>4.463761139656424E-06</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>6.306601827969976</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>7.640257344116413E-06</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>3.531032769135633E-06</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="1">
         <v>0.001045294760823318</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="1">
         <v>0.4221992511168416</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="1">
         <v>23.85426719511176</v>
       </c>
     </row>

--- a/data/Em3/PrBlank.xlsx
+++ b/data/Em3/PrBlank.xlsx
@@ -47,13 +47,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -84,7 +90,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
